--- a/public/assets/formats/bulk-raw-material.xlsx
+++ b/public/assets/formats/bulk-raw-material.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\inventory\public\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">
-                Raw Materials            </t>
-  </si>
-  <si>
-    <t>Sno.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Raw Material Name</t>
   </si>
@@ -49,13 +42,7 @@
     <t>Dependent Material</t>
   </si>
   <si>
-    <t>PartCode</t>
-  </si>
-  <si>
     <t>Re Order</t>
-  </si>
-  <si>
-    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -93,11 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,47 +366,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -441,49 +420,10 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/assets/formats/bulk-raw-material.xlsx
+++ b/public/assets/formats/bulk-raw-material.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Raw Material Name</t>
   </si>
@@ -43,13 +43,37 @@
   </si>
   <si>
     <t>Re Order</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>Price 1</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t>Price 2</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>Price 3</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -59,13 +83,30 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,10 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -366,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,50 +423,85 @@
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>